--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_5_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1790278.451296371</v>
+        <v>1926984.53360069</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809163</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6749893.290450634</v>
+        <v>6845981.545150692</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>380.3390849040714</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>28.11631013281968</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>28.11631013281968</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.76484596498756</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>7.105482472589287</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>24.76484596498756</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>220.3560188701923</v>
       </c>
       <c r="E5" t="n">
-        <v>144.9357484871466</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>292.908220654345</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.908220654345</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +978,13 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1029,13 +1029,13 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>122.0284843412711</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>97.68696620264629</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>24.92613046756849</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>37.20358884006965</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>154.6054260348451</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,7 +1294,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>54.12014366736884</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1309,7 +1309,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>251.1645483775271</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>52.84429435108638</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>80.94900182826238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>292.0416655030198</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>217.4850487393862</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>191.8186747056956</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>261.8373790188442</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>205.3931121155066</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>210.694575810547</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>215.8682860081285</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>168.9164623971669</v>
       </c>
       <c r="U22" t="n">
-        <v>215.9733000360332</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>108.7338525045193</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>136.7935461220412</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>111.6334987115763</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2728,7 +2728,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2773,13 +2773,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2965,10 +2965,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,7 +3004,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3013,10 +3013,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>19.38187398371011</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.31809669527379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>178.1668213893229</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542511</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>108.1577655104134</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475631</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>158.3362093704344</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607369</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790767</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824293</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535901</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.0407699530309</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915333</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V35" t="n">
-        <v>318.2399193523734</v>
+        <v>318.2399193523726</v>
       </c>
       <c r="W35" t="n">
         <v>356.7528348300169</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E40" t="n">
         <v>128.8715224160353</v>
@@ -3676,10 +3676,10 @@
         <v>128.9197986360705</v>
       </c>
       <c r="H40" t="n">
-        <v>106.6837044342875</v>
+        <v>106.6837044342877</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U40" t="n">
         <v>241.7080026420591</v>
@@ -3721,10 +3721,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y40" t="n">
         <v>188.4047392545157</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.9752792759752</v>
+        <v>379.9752792759751</v>
       </c>
       <c r="C41" t="n">
         <v>386.9571213141932</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105455</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T43" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U43" t="n">
         <v>241.7080026420591</v>
@@ -3958,10 +3958,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W43" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X43" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y43" t="n">
         <v>188.4047392545157</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F46" t="n">
         <v>134.4685551105455</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705912</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T46" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U46" t="n">
         <v>241.7080026420591</v>
@@ -4195,10 +4195,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X46" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y46" t="n">
         <v>188.4047392545157</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>530.724824632631</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>507.8644986863351</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>488.6122819117395</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>62.63534205959709</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>41.55156428940139</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>914.3610754869188</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707752</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707752</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>1096.055105707752</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>1096.055105707752</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>1606.559816458521</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835844</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835844</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1699.923092432257</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1342.433677558506</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1342.433677558506</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>930.7136787262534</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>546.532784883757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.6496180761</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.6289991569445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J3" t="n">
-        <v>28.95979943680427</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K3" t="n">
-        <v>56.79494646829576</v>
+        <v>551.7576166700233</v>
       </c>
       <c r="L3" t="n">
-        <v>56.79494646829576</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="M3" t="n">
-        <v>56.79494646829576</v>
+        <v>1572.767038171562</v>
       </c>
       <c r="N3" t="n">
-        <v>56.79494646829576</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>56.79494646829576</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>55.66461400032987</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>55.66461400032987</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>55.66461400032987</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>55.66461400032987</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>1024.665460183767</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>852.692897062683</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>689.3761241894537</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>523.1679183423072</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>351.3061441168676</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>166.2511979795704</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>520.9405192739912</v>
       </c>
       <c r="M4" t="n">
-        <v>56.79494646829576</v>
+        <v>912.1263142442419</v>
       </c>
       <c r="N4" t="n">
-        <v>56.79494646829576</v>
+        <v>1289.617825120278</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>1645.045953800041</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>1935.645165721942</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>84.0649272658043</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S4" t="n">
-        <v>55.66461400032987</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>2055.468040939887</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>1775.283592440191</v>
       </c>
       <c r="V4" t="n">
-        <v>30.6496180761</v>
+        <v>1493.57212504822</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>1493.57212504822</v>
       </c>
       <c r="X4" t="n">
-        <v>30.6496180761</v>
+        <v>1251.008228494025</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.249304810625575</v>
+        <v>1024.665460183767</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.2242537167236</v>
+        <v>333.2593601902432</v>
       </c>
       <c r="C5" t="n">
-        <v>245.3639277704278</v>
+        <v>310.3990342439474</v>
       </c>
       <c r="D5" t="n">
-        <v>226.1117109958321</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>79.71196504921939</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>58.62818727902369</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>58.32952890887638</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>58.32952890887638</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>301.6954672739755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>591.674605721777</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>881.6537441695784</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>881.6537441695784</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>881.6537441695784</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>881.6537441695784</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1171.63288261738</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.63288261738</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>875.7659930675364</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>875.7659930675364</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>579.899103517693</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y5" t="n">
-        <v>284.0322139678495</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393.070359881992</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>275.5644563994968</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>275.5644563994968</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.862522672434</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.862522672434</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003801</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>219.6761571892722</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>509.6552956370737</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>509.6552956370737</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>509.6552956370737</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>509.6552956370737</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>509.6552956370737</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848752</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532677</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.63288261738</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178634</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>948.4286994763127</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>948.4286994763127</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>825.1676041820995</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>825.1676041820995</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>661.6902579487623</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.9973693020547</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>609.736966725713</v>
+        <v>523.5838295354065</v>
       </c>
       <c r="C7" t="n">
-        <v>437.764403604629</v>
+        <v>351.6112664143225</v>
       </c>
       <c r="D7" t="n">
-        <v>437.764403604629</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E7" t="n">
-        <v>339.0907003696328</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F7" t="n">
-        <v>167.2289261441932</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2289261441932</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>80.92398587650561</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>307.4515870823428</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>307.4515870823428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>307.4515870823428</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>597.4307255301444</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>887.4098639779459</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376618</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.63288261738</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.63288261738</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.63288261738</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>891.4484341176842</v>
+        <v>1739.220334331383</v>
       </c>
       <c r="V7" t="n">
-        <v>609.736966725713</v>
+        <v>1457.508866939412</v>
       </c>
       <c r="W7" t="n">
-        <v>609.736966725713</v>
+        <v>1182.656463111925</v>
       </c>
       <c r="X7" t="n">
-        <v>609.736966725713</v>
+        <v>940.0925665577302</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.736966725713</v>
+        <v>713.7497982474722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.0625638542408</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>99.48318118750379</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1769.873171385915</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1769.873171385915</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1769.873171385915</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1366.319142682382</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>969.9277929827292</v>
+        <v>2068.744155457483</v>
       </c>
       <c r="X8" t="n">
-        <v>558.2077941504765</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.9109281457709</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>765.3953884431487</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2141.868329189791</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1749.86447045962</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1361.468720901149</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>970.3886523055354</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2092.010204276044</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2937.154854426856</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3645.434133584783</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>4101.519613088966</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3958.170370649444</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3635.577827032222</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3274.083348589097</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2897.260221013373</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2526.819822224792</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>91.72003282628407</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>682.2049593946236</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0778208732756</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M12" t="n">
-        <v>850.0778208732756</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709869</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064318</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897313</v>
+        <v>534.5364572184668</v>
       </c>
       <c r="E13" t="n">
-        <v>499.2367567991137</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F13" t="n">
-        <v>362.2718538302029</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>230.9117553809638</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425693</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369395</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145058</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627487</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.19583338432</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248878</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.42570467792</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380253</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326524</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>453.7155810183948</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>84.27338986437223</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>270.248935367354</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1199.873982986631</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2204.160084405689</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2204.160084405689</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O14" t="n">
-        <v>3049.304734556501</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P14" t="n">
-        <v>3757.584013714429</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502385</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>946.4558057123029</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L15" t="n">
-        <v>1003.47974243341</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M15" t="n">
-        <v>1003.47974243341</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N15" t="n">
-        <v>1003.47974243341</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929077</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283525</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116519</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210342</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521234</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028844</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1717.513965970798</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.558433399839</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>838.736788768378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048445</v>
+        <v>612.3940204581201</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2015.422568456721</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1623.418709726551</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1235.02296016808</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>843.9428915724659</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>453.7155810183949</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27338986437223</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>84.27338986437223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>799.7816978398713</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>1683.994505423171</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>1683.994505423171</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>2660.245563909872</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3505.390214060684</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.669493218612</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3147.637587856027</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2770.814460280303</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2400.374061491722</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437223</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>674.7583164327118</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>674.7583164327118</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>674.7583164327118</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>674.7583164327118</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>674.7583164327118</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1390.95603347121</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1855.101510333989</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.1764135929075</v>
+        <v>446.1370507523523</v>
       </c>
       <c r="C19" t="n">
-        <v>786.1007217283523</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D19" t="n">
-        <v>657.6808201116517</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E19" t="n">
-        <v>526.369485521034</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F19" t="n">
-        <v>389.4045825521232</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>258.0444841028842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.558433399839</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1269.891408102174</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.445511048445</v>
+        <v>636.303019464418</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2104.438990741571</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2092.010204276044</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>2937.154854426856</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>3645.434133584783</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4101.519613088966</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4144.199070348282</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3920.741032201222</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3598.148488584001</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3236.654010140877</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2859.830882565153</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2489.390483776572</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>84.27338986437223</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1127.156589435979</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.1764135929075</v>
+        <v>446.1370507523523</v>
       </c>
       <c r="C22" t="n">
-        <v>786.1007217283523</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116517</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E22" t="n">
-        <v>526.369485521034</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521232</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627486</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.32856210624</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1717.513965970798</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1477.55843339984</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X22" t="n">
-        <v>1269.891408102174</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.445511048445</v>
+        <v>636.303019464418</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505441</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057895</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366635</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870818</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752721</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036493</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.450181419271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400423</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465097</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640145</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792995</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522367</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>91.61999771505441</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>1147.606535691099</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.36338681328</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665724</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216681</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571129</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404124</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497948</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028055</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177205</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
         <v>2988.069926596602</v>
@@ -6309,10 +6309,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.5735305570795</v>
+        <v>960.0641767715081</v>
       </c>
       <c r="C28" t="n">
-        <v>706.3982314439065</v>
+        <v>960.0641767715081</v>
       </c>
       <c r="D28" t="n">
-        <v>706.3982314439065</v>
+        <v>796.7474038982788</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6385,7 +6385,7 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1503.646164133598</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1261.082267579403</v>
+        <v>960.0641767715081</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.739499269145</v>
+        <v>960.0641767715081</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6470,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6546,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.303066961835</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C31" t="n">
-        <v>847.303066961835</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058286</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.677474344534</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.113577790339</v>
+        <v>965.8767620434151</v>
       </c>
       <c r="Y31" t="n">
-        <v>1037.469035673901</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210686</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815408</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>457.1387017960581</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>457.1387017960581</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1461.424803215116</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701817</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.820511852629</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010557</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.18527051474</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630241</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984468</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>1797.722699000682</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>1899.982462688443</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.982462688443</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.23129846199</v>
+        <v>534.9883540242406</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223605</v>
+        <v>373.2152733633806</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305854</v>
+        <v>373.2152733633806</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648931</v>
+        <v>263.9650051710438</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209077</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G34" t="n">
-        <v>262.789767096594</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862026</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892524</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543554</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090881</v>
+        <v>771.0005024080419</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137559</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.67083377286</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211889</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893056</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893084</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2362.687842893084</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2202.752277872443</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468937</v>
+        <v>1969.612412558567</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1699.627446519096</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1428.115461587349</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1163.462540220086</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>931.0981261261155</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292601</v>
+        <v>714.954840276082</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6941,10 +6941,10 @@
         <v>806.8031400834319</v>
       </c>
       <c r="L35" t="n">
-        <v>1736.428187702709</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="M35" t="n">
-        <v>2555.23219658372</v>
+        <v>1578.981138097019</v>
       </c>
       <c r="N35" t="n">
         <v>2555.23219658372</v>
@@ -6974,13 +6974,13 @@
         <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>91.29483210793285</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793285</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="O36" t="n">
-        <v>980.7761101194045</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P36" t="n">
-        <v>1696.973827157903</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q36" t="n">
         <v>1899.982462688443</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223604</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
@@ -7102,10 +7102,10 @@
         <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C38" t="n">
         <v>1887.72126111492</v>
@@ -7157,10 +7157,10 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7172,28 +7172,28 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K38" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L38" t="n">
-        <v>2099.031646519604</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M38" t="n">
-        <v>2099.031646519604</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="N38" t="n">
-        <v>2437.675861701817</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>3400.376846734532</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R38" t="n">
         <v>4564.741605396643</v>
@@ -7208,10 +7208,10 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
         <v>3031.702772793897</v>
@@ -7248,25 +7248,25 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793285</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793285</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6199587024621</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="P39" t="n">
         <v>1353.81767574096</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619911</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223613</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305862</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648939</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209086</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965949</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
@@ -7333,16 +7333,16 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
         <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I41" t="n">
         <v>91.29483210793285</v>
@@ -7418,19 +7418,19 @@
         <v>1736.428187702709</v>
       </c>
       <c r="M41" t="n">
-        <v>2437.675861701817</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701817</v>
+        <v>2712.679246189409</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.820511852629</v>
+        <v>3557.823896340221</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010557</v>
+        <v>4266.103175498149</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396643</v>
@@ -7445,16 +7445,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
         <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
         <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965939</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
@@ -7573,22 +7573,22 @@
         <v>445.9494722557544</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090884</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792691</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960994</v>
@@ -7597,7 +7597,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7606,10 +7606,10 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E44" t="n">
         <v>1110.521602210686</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I44" t="n">
         <v>91.29483210793285</v>
@@ -7682,16 +7682,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X44" t="n">
         <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L45" t="n">
-        <v>1797.722699000682</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="M45" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="N45" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="P45" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q45" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
         <v>528.8386092648932</v>
@@ -7807,10 +7807,10 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238253</v>
@@ -7840,7 +7840,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W46" t="n">
         <v>1473.199079394147</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>551.4259247854853</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>221.8413658880098</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7991,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>553.2366858009073</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59141193553404</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>50.51554396615302</v>
+        <v>538.0605578240094</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>538.1764107049056</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>538.758104503004</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>301.3162588480896</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>147.2255555237386</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>310.4935045579379</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>328.6728214491543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>331.2202630869679</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8228,13 +8228,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645763</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,16 +8292,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>218.836871441338</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876783</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.370543772121</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,13 +8310,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591737</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433235</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,19 +8377,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299454</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527694</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>181.1917990404835</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.616039913105</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,10 +8529,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8544,13 +8544,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>108.6396787202253</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>62.78265149768123</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8699,7 +8699,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8711,7 +8711,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>148.3153570964588</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L12" t="n">
-        <v>192.0836336623629</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1074.760401518195</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>223.6186871614576</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8936,19 +8936,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>625.1822253778511</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,25 +9000,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L15" t="n">
-        <v>80.1150227961563</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>931.4562925167642</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>660.954139937714</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,10 +9182,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9264,7 +9264,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>61.91484879908644</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>148.3153570964588</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1076.514153816981</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N21" t="n">
-        <v>794.8828575154641</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9647,7 +9647,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568395</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9720,13 +9720,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574455</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9878,13 +9878,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9957,13 +9957,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10118,7 +10118,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10130,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,16 +10349,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>39.03774308898075</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10431,10 +10431,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10446,10 +10446,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>818.2898182039227</v>
       </c>
       <c r="M35" t="n">
-        <v>864.5060193448974</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10674,16 +10674,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.8062660976048</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,7 +10832,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>379.3444866548631</v>
+        <v>864.3543792799117</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10844,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,16 +10908,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1016.408610200736</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11066,10 +11066,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>745.7622467369152</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11078,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>337.7796543000466</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11394,10 +11394,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1604890710031</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>108.8393107934106</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>26.86140143470126</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>96.04215463984957</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>26.86140143470169</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>48.31958288295729</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>96.04215463984889</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>71.98949189919216</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>26.86140143470158</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>172.2155341347409</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="U22" t="n">
-        <v>26.86140143470202</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>26.86140143470236</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>33.45929136783192</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>52.9126250770987</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.7563836049428</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.7612439318816</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088749</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.2908706426395</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730881</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713051</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150474</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407654</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>545700.1049826443</v>
+        <v>579792.6656556114</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>564834.6638500281</v>
+        <v>581872.784093932</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>577010.3155192023</v>
+        <v>581872.784093932</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>574624.1752245984</v>
+        <v>591458.6898920591</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>574624.1752245985</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>574624.1752245985</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>574624.1752245985</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>604482.7440762373</v>
+        <v>591458.689892059</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604918.9313378329</v>
+        <v>596802.9443596172</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604918.9313378329</v>
+        <v>604918.9313378331</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092092</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092096</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>456579.6115720433</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
-        <v>456579.6115720434</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="G2" t="n">
-        <v>456579.6115720433</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>456579.6115720433</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
-        <v>479983.3453608021</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
         <v>463675.0825883938</v>
@@ -26341,19 +26341,19 @@
         <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>480515.2011092092</v>
+        <v>468441.5798162152</v>
       </c>
       <c r="M2" t="n">
-        <v>480515.2011092092</v>
+        <v>480515.2011092095</v>
       </c>
       <c r="N2" t="n">
-        <v>480515.201109209</v>
+        <v>480515.2011092091</v>
       </c>
       <c r="O2" t="n">
-        <v>480515.2011092092</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="P2" t="n">
-        <v>480515.2011092092</v>
+        <v>480515.2011092093</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943981</v>
+        <v>13105.84347019884</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447342</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826568</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085283</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710393</v>
+        <v>10440.51617310193</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370013</v>
+        <v>8077.990108497637</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077717</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307896.8374857302</v>
+        <v>189825.0783109583</v>
       </c>
       <c r="C4" t="n">
-        <v>241628.68449549</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>98307.32803347624</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
-        <v>98307.32803347622</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="G4" t="n">
-        <v>98307.32803347622</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="H4" t="n">
-        <v>98307.32803347622</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="I4" t="n">
-        <v>101968.7631056897</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986373</v>
@@ -26445,7 +26445,7 @@
         <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>102894.0969339102</v>
+        <v>75703.20389560383</v>
       </c>
       <c r="M4" t="n">
         <v>102894.0969339102</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863309</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578417</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240983</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,7 +26497,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482541</v>
+        <v>78598.9478764688</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482541</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127858.8697667626</v>
+        <v>52900.34441989061</v>
       </c>
       <c r="C6" t="n">
-        <v>101903.5926184955</v>
+        <v>217342.0410856834</v>
       </c>
       <c r="D6" t="n">
-        <v>167034.8052740857</v>
+        <v>230447.8845558822</v>
       </c>
       <c r="E6" t="n">
-        <v>86918.38616305726</v>
+        <v>97754.00593127575</v>
       </c>
       <c r="F6" t="n">
-        <v>291320.0996226758</v>
+        <v>313493.3624879162</v>
       </c>
       <c r="G6" t="n">
-        <v>291320.0996226758</v>
+        <v>313493.3624879163</v>
       </c>
       <c r="H6" t="n">
-        <v>291320.0996226758</v>
+        <v>313493.3624879162</v>
       </c>
       <c r="I6" t="n">
-        <v>281058.760044437</v>
+        <v>313493.3624879161</v>
       </c>
       <c r="J6" t="n">
-        <v>271249.5734992476</v>
+        <v>178573.6710336997</v>
       </c>
       <c r="K6" t="n">
-        <v>245395.4287229964</v>
+        <v>303052.8463148142</v>
       </c>
       <c r="L6" t="n">
-        <v>268879.4396067736</v>
+        <v>306024.8512044541</v>
       </c>
       <c r="M6" t="n">
-        <v>157704.7827285592</v>
+        <v>139002.4419027021</v>
       </c>
       <c r="N6" t="n">
         <v>305237.9037104734</v>
       </c>
       <c r="O6" t="n">
+        <v>305237.9037104738</v>
+      </c>
+      <c r="P6" t="n">
         <v>305237.9037104737</v>
-      </c>
-      <c r="P6" t="n">
-        <v>305237.9037104736</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263963</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701758</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215253</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059892</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.8325981335272</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674964</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215253</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229305</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215253</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059892</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>20.94481244058716</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3448262124788</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>154.80420398674</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.531113795253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,22 +27537,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.4519170468789</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>233.8004718237697</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>254.1295067530638</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>198.7036757366574</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>276.7814219664745</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>61.00630007066803</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6945781895852</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.3756766903136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>80.89492313085535</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>66.85915758602869</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.4564735471303</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>385.4281338467632</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,16 +27904,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>237.8220101678115</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.5634614771282</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28068,7 +28068,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>-4.622602397465861e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>10.09748763562205</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137264038</v>
       </c>
       <c r="W35" t="n">
         <v>35.67460137263963</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>183.5293234553869</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>279.9732306345479</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>126.2609010710266</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>26.98029760220071</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>281.0735450723514</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>292.908220654345</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>198.2257571080047</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,13 +35030,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.908220654345</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.908220654345</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>158.810998382497</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>76.49136530850697</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.46778899800312</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>40.86389160198001</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35431,7 +35431,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>113.2827072016623</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L12" t="n">
-        <v>169.5685469481333</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1053.417373304653</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>187.8540863666482</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35656,19 +35656,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>587.902602543405</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L15" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>893.1442500841413</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>623.5228770382822</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,10 +35902,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>38.24192940494229</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>113.2827072016623</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1053.417373304653</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N21" t="n">
-        <v>773.5398293019225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223935</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36850,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>3.273142294171413</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37151,10 +37151,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>68.16953634689277</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.913246429397</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471582</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.234654272239</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760622</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333625</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324917</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747755</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>779.9777757712998</v>
       </c>
       <c r="M35" t="n">
-        <v>827.0747564454656</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>342.0648638204171</v>
+        <v>827.0747564454656</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37564,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>708.3309838374835</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37798,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>301.6549796954485</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J44" t="n">
         <v>366.2661200170662</v>
@@ -38099,10 +38099,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
